--- a/dadosRegSugar.xlsx
+++ b/dadosRegSugar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://impactobioenergia-my.sharepoint.com/personal/guimario_amorim_ibea_com_br/Documents/Documentos/impacto-gestao-riscos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{891B15BD-C43B-45D2-B916-076D298F033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{891B15BD-C43B-45D2-B916-076D298F033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9D9CF3-3FED-42E4-8B49-F5B774502CD1}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F605E96F-EFDA-4681-8F6B-89E77E6DBDFA}"/>
   </bookViews>
@@ -38,18 +38,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
-    <t xml:space="preserve">Ano safra </t>
-  </si>
-  <si>
     <t>Produção (mi)</t>
   </si>
   <si>
     <t>Demanda(mi)</t>
   </si>
   <si>
-    <t xml:space="preserve">Estoque Inicial(mi) </t>
-  </si>
-  <si>
     <t>Estoque Final (mi)</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Ano safra</t>
+  </si>
+  <si>
+    <t>Estoque Inicial(mi)</t>
   </si>
 </sst>
 </file>
@@ -474,7 +474,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,27 +489,27 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <v>162221</v>
@@ -529,7 +529,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>172349</v>
@@ -549,7 +549,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>177833</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
         <v>175971</v>
@@ -589,7 +589,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1">
         <v>177582</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" s="1">
         <v>164972</v>
@@ -629,7 +629,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="1">
         <v>172143</v>
@@ -649,7 +649,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1">
         <v>194222</v>
@@ -669,7 +669,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10" s="1">
         <v>179158</v>
@@ -689,7 +689,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1">
         <v>166559</v>
@@ -709,7 +709,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1">
         <v>180262</v>
@@ -729,7 +729,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1">
         <v>180676</v>
@@ -749,7 +749,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="1">
         <v>179145</v>
@@ -769,7 +769,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15" s="1">
         <v>183827</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="1">
         <v>186619</v>

--- a/dadosRegSugar.xlsx
+++ b/dadosRegSugar.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://impactobioenergia-my.sharepoint.com/personal/guimario_amorim_ibea_com_br/Documents/Documentos/impacto-gestao-riscos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{891B15BD-C43B-45D2-B916-076D298F033E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC9D9CF3-3FED-42E4-8B49-F5B774502CD1}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_AD4D361C20488DEA4E38A0565C1861905ADEDD84" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F46B20C-107D-43FA-8290-65201BD2AEAF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F605E96F-EFDA-4681-8F6B-89E77E6DBDFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+  <si>
+    <t>1990/1991</t>
+  </si>
+  <si>
+    <t>1991/1992</t>
+  </si>
+  <si>
+    <t>1992/1993</t>
+  </si>
+  <si>
+    <t>1993/1994</t>
+  </si>
+  <si>
+    <t>1994/1995</t>
+  </si>
+  <si>
+    <t>1995/1996</t>
+  </si>
+  <si>
+    <t>1996/1997</t>
+  </si>
+  <si>
+    <t>1997/1998</t>
+  </si>
+  <si>
+    <t>1998/1999</t>
+  </si>
+  <si>
+    <t>1999/2000</t>
+  </si>
+  <si>
+    <t>2000/2001</t>
+  </si>
+  <si>
+    <t>2001/2002</t>
+  </si>
+  <si>
+    <t>2002/2003</t>
+  </si>
+  <si>
+    <t>2003/2004</t>
+  </si>
+  <si>
+    <t>2004/2005</t>
+  </si>
+  <si>
+    <t>2005/2006</t>
+  </si>
+  <si>
+    <t>2006/2007</t>
+  </si>
+  <si>
+    <t>2007/2008</t>
+  </si>
+  <si>
+    <t>2008/2009</t>
+  </si>
+  <si>
+    <t>2009/2010</t>
+  </si>
+  <si>
+    <t>2010/2011</t>
+  </si>
+  <si>
+    <t>2011/2012</t>
+  </si>
+  <si>
+    <t>2012/2013</t>
+  </si>
+  <si>
+    <t>2013/2014</t>
+  </si>
+  <si>
+    <t>2014/2015</t>
+  </si>
+  <si>
+    <t>2015/2016</t>
+  </si>
+  <si>
+    <t>2016/2017</t>
+  </si>
+  <si>
+    <t>2017/2018</t>
+  </si>
+  <si>
+    <t>2018/2019</t>
+  </si>
+  <si>
+    <t>2019/2020</t>
+  </si>
+  <si>
+    <t>2020/2021</t>
+  </si>
+  <si>
+    <t>2021/2022</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Ano safra</t>
+  </si>
   <si>
     <t>Produção (mi)</t>
   </si>
@@ -44,72 +149,36 @@
     <t>Demanda(mi)</t>
   </si>
   <si>
+    <t>Estoque Inicial(mi)</t>
+  </si>
+  <si>
     <t>Estoque Final (mi)</t>
   </si>
   <si>
     <t>Estoque Uso(%)</t>
   </si>
   <si>
-    <t>2009/2010</t>
-  </si>
-  <si>
-    <t>2010/2011</t>
-  </si>
-  <si>
-    <t>2011/2012</t>
-  </si>
-  <si>
-    <t>2012/2013</t>
-  </si>
-  <si>
-    <t>2013/2014</t>
-  </si>
-  <si>
-    <t>2014/2015</t>
-  </si>
-  <si>
-    <t>2015/2016</t>
-  </si>
-  <si>
-    <t>2016/2017</t>
-  </si>
-  <si>
-    <t>2017/2018</t>
-  </si>
-  <si>
-    <t>2018/2019</t>
-  </si>
-  <si>
-    <t>2019/2020</t>
-  </si>
-  <si>
-    <t>2020/2021</t>
-  </si>
-  <si>
-    <t>2021/2022</t>
-  </si>
-  <si>
-    <t>2022/2023</t>
-  </si>
-  <si>
-    <t>2023/2024</t>
-  </si>
-  <si>
-    <t>Ano safra</t>
-  </si>
-  <si>
-    <t>Estoque Inicial(mi)</t>
+    <t>SB=F</t>
+  </si>
+  <si>
+    <t>CL=F</t>
+  </si>
+  <si>
+    <t>USDBRL=X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -136,7 +205,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,7 +224,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -165,42 +234,42 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -230,29 +299,12 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -282,23 +334,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -360,6 +395,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -368,13 +410,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -439,376 +474,1064 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81CE4296-D02D-4614-AC83-0B313046D384}">
-  <dimension ref="A1:F16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>117426</v>
+      </c>
+      <c r="C2">
+        <v>113722</v>
+      </c>
+      <c r="D2">
+        <v>22358</v>
+      </c>
+      <c r="E2">
+        <v>24346</v>
+      </c>
+      <c r="F2" s="1">
+        <f t="shared" ref="F2:F35" si="0">E2/C2 *100</f>
+        <v>21.408346669949527</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>19.12</v>
+      </c>
+      <c r="I2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>113237</v>
+      </c>
+      <c r="C3">
+        <v>113977</v>
+      </c>
+      <c r="D3">
+        <v>24346</v>
+      </c>
+      <c r="E3">
+        <v>23390</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>20.521684199443747</v>
+      </c>
+      <c r="G3">
+        <v>8.41</v>
+      </c>
+      <c r="H3">
+        <v>19.5</v>
+      </c>
+      <c r="I3">
+        <v>5.3E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>111015</v>
+      </c>
+      <c r="C4">
+        <v>113540</v>
+      </c>
+      <c r="D4">
+        <v>23390</v>
+      </c>
+      <c r="E4">
+        <v>21669</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>19.084903998590804</v>
+      </c>
+      <c r="G4">
+        <v>10.77</v>
+      </c>
+      <c r="H4">
+        <v>14.17</v>
+      </c>
+      <c r="I4">
+        <v>0.1167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>118021</v>
+      </c>
+      <c r="C5">
+        <v>115644</v>
+      </c>
+      <c r="D5">
+        <v>21669</v>
+      </c>
+      <c r="E5">
+        <v>25624</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>22.157656255404518</v>
+      </c>
+      <c r="G5">
+        <v>15.17</v>
+      </c>
+      <c r="H5">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="I5">
+        <v>0.84699999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>123730</v>
+      </c>
+      <c r="C6">
+        <v>117656</v>
+      </c>
+      <c r="D6">
+        <v>25624</v>
+      </c>
+      <c r="E6">
+        <v>30644</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>26.045420548038351</v>
+      </c>
+      <c r="G6">
+        <v>11.6</v>
+      </c>
+      <c r="H6">
+        <v>19.55</v>
+      </c>
+      <c r="I6">
+        <v>0.97189999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>124327</v>
+      </c>
+      <c r="C7">
+        <v>120942</v>
+      </c>
+      <c r="D7">
+        <v>30644</v>
+      </c>
+      <c r="E7">
+        <v>29812</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>24.649832150948388</v>
+      </c>
+      <c r="G7">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>25.92</v>
+      </c>
+      <c r="I7">
+        <v>1.0390999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>125506</v>
+      </c>
+      <c r="C8">
+        <v>123552</v>
+      </c>
+      <c r="D8">
+        <v>29812</v>
+      </c>
+      <c r="E8">
+        <v>28499</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>23.066401191401191</v>
+      </c>
+      <c r="G8">
+        <v>12.22</v>
+      </c>
+      <c r="H8">
+        <v>17.64</v>
+      </c>
+      <c r="I8">
+        <v>1.1160000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>130851</v>
+      </c>
+      <c r="C9">
+        <v>124828</v>
+      </c>
+      <c r="D9">
+        <v>28499</v>
+      </c>
+      <c r="E9">
+        <v>34098</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>27.315986797833819</v>
+      </c>
+      <c r="G9">
+        <v>7.86</v>
+      </c>
+      <c r="H9">
+        <v>12.05</v>
+      </c>
+      <c r="I9">
+        <v>1.2082999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>135722</v>
+      </c>
+      <c r="C10">
+        <v>127615</v>
+      </c>
+      <c r="D10">
+        <v>34098</v>
+      </c>
+      <c r="E10">
+        <v>37433</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>29.332758688241977</v>
+      </c>
+      <c r="G10">
+        <v>6.12</v>
+      </c>
+      <c r="H10">
+        <v>25.6</v>
+      </c>
+      <c r="I10">
+        <v>1.8055000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>130764</v>
+      </c>
+      <c r="C11">
+        <v>130392</v>
+      </c>
+      <c r="D11">
+        <v>37433</v>
+      </c>
+      <c r="E11">
+        <v>39861</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>30.570127001656545</v>
+      </c>
+      <c r="G11">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H11">
+        <v>26.8</v>
+      </c>
+      <c r="I11">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>134398</v>
+      </c>
+      <c r="C12">
+        <v>134985</v>
+      </c>
+      <c r="D12">
+        <v>39861</v>
+      </c>
+      <c r="E12">
+        <v>36629</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>27.135607660110384</v>
+      </c>
+      <c r="G12">
+        <v>7.39</v>
+      </c>
+      <c r="H12">
+        <v>19.84</v>
+      </c>
+      <c r="I12">
+        <v>2.3109999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>148552</v>
+      </c>
+      <c r="C13">
+        <v>139082</v>
+      </c>
+      <c r="D13">
+        <v>36629</v>
+      </c>
+      <c r="E13">
+        <v>40593</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>29.186379258279288</v>
+      </c>
+      <c r="G13">
+        <v>7.33</v>
+      </c>
+      <c r="H13">
+        <v>31.2</v>
+      </c>
+      <c r="I13">
+        <v>3.54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>142487</v>
+      </c>
+      <c r="C14">
+        <v>139744</v>
+      </c>
+      <c r="D14">
+        <v>40593</v>
+      </c>
+      <c r="E14">
+        <v>38055</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>27.23193840164873</v>
+      </c>
+      <c r="G14">
+        <v>5.67</v>
+      </c>
+      <c r="H14">
+        <v>32.520000000000003</v>
+      </c>
+      <c r="I14">
+        <v>2.8915000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>140734</v>
+      </c>
+      <c r="C15">
+        <v>142577</v>
+      </c>
+      <c r="D15">
+        <v>38055</v>
+      </c>
+      <c r="E15">
+        <v>34739</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>24.365079921726508</v>
+      </c>
+      <c r="G15">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="H15">
+        <v>43.45</v>
+      </c>
+      <c r="I15">
+        <v>2.6560000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>144303</v>
+      </c>
+      <c r="C16">
+        <v>143754</v>
+      </c>
+      <c r="D16">
+        <v>34739</v>
+      </c>
+      <c r="E16">
+        <v>30474</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>21.198714470553863</v>
+      </c>
+      <c r="G16">
+        <v>14.68</v>
+      </c>
+      <c r="H16">
+        <v>61.04</v>
+      </c>
+      <c r="I16">
+        <v>2.3382999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>164278</v>
+      </c>
+      <c r="C17">
+        <v>151399</v>
+      </c>
+      <c r="D17">
+        <v>30474</v>
+      </c>
+      <c r="E17">
+        <v>36736</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>24.264361059187973</v>
+      </c>
+      <c r="G17">
+        <v>11.75</v>
+      </c>
+      <c r="H17">
+        <v>61.05</v>
+      </c>
+      <c r="I17">
+        <v>2.1364999999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>163257</v>
+      </c>
+      <c r="C18">
+        <v>151247</v>
+      </c>
+      <c r="D18">
+        <v>36736</v>
+      </c>
+      <c r="E18">
+        <v>43080</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>28.483209584322331</v>
+      </c>
+      <c r="G18">
+        <v>10.82</v>
+      </c>
+      <c r="H18">
+        <v>95.98</v>
+      </c>
+      <c r="I18">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>143833</v>
+      </c>
+      <c r="C19">
+        <v>154448</v>
+      </c>
+      <c r="D19">
+        <v>43080</v>
+      </c>
+      <c r="E19">
+        <v>29836</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>19.31782865430436</v>
+      </c>
+      <c r="G19">
+        <v>11.81</v>
+      </c>
+      <c r="H19">
+        <v>44.6</v>
+      </c>
+      <c r="I19">
+        <v>2.3144999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>153184</v>
+      </c>
+      <c r="C20">
+        <v>154926</v>
+      </c>
+      <c r="D20">
+        <v>29836</v>
+      </c>
+      <c r="E20">
+        <v>28028</v>
+      </c>
+      <c r="F20" s="1">
+        <f>E20/C20 *100</f>
+        <v>18.091217742664238</v>
+      </c>
+      <c r="G20">
+        <v>26.95</v>
+      </c>
+      <c r="H20">
+        <v>79.36</v>
+      </c>
+      <c r="I20">
+        <v>1.7430000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="B21">
+        <v>162221</v>
+      </c>
+      <c r="C21">
+        <v>155938</v>
+      </c>
+      <c r="D21">
+        <v>28028</v>
+      </c>
+      <c r="E21">
+        <v>29491</v>
+      </c>
+      <c r="F21">
+        <v>13.2</v>
+      </c>
+      <c r="G21">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="H21">
+        <v>91.38</v>
+      </c>
+      <c r="I21">
+        <v>1.6595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1">
-        <v>162221</v>
-      </c>
-      <c r="C2" s="1">
-        <v>155938</v>
-      </c>
-      <c r="D2" s="1">
-        <v>28028</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="B22">
+        <v>172349</v>
+      </c>
+      <c r="C22">
+        <v>160217</v>
+      </c>
+      <c r="D22">
         <v>29491</v>
       </c>
-      <c r="F2">
-        <v>13.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1">
-        <v>172349</v>
-      </c>
-      <c r="C3" s="1">
-        <v>160217</v>
-      </c>
-      <c r="D3" s="1">
-        <v>29491</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="E22">
         <v>35190</v>
       </c>
-      <c r="F3">
+      <c r="F22">
         <v>11.8</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1">
+      <c r="G22">
+        <v>23.3</v>
+      </c>
+      <c r="H22">
+        <v>98.83</v>
+      </c>
+      <c r="I22">
+        <v>1.8632</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
         <v>177833</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C23">
         <v>166437</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D23">
         <v>35190</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E23">
         <v>42288</v>
       </c>
-      <c r="F4">
+      <c r="F23">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1">
+      <c r="G23">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H23">
+        <v>91.82</v>
+      </c>
+      <c r="I23">
+        <v>2.0485000000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
         <v>175971</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C24">
         <v>166960</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D24">
         <v>42288</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E24">
         <v>44798</v>
       </c>
-      <c r="F5">
+      <c r="F24">
         <v>17.899999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1">
+      <c r="G24">
+        <v>16.41</v>
+      </c>
+      <c r="H24">
+        <v>98.42</v>
+      </c>
+      <c r="I24">
+        <v>2.3618000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
         <v>177582</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C25">
         <v>168839</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D25">
         <v>44798</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E25">
         <v>48756</v>
       </c>
-      <c r="F6">
+      <c r="F25">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1">
+      <c r="G25">
+        <v>14.52</v>
+      </c>
+      <c r="H25">
+        <v>53.27</v>
+      </c>
+      <c r="I25">
+        <v>2.657</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
         <v>164972</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C26">
         <v>169748</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D26">
         <v>48756</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E26">
         <v>44422</v>
       </c>
-      <c r="F7">
+      <c r="F26">
         <v>14.9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1">
+      <c r="G26">
+        <v>15.24</v>
+      </c>
+      <c r="H26">
+        <v>37.04</v>
+      </c>
+      <c r="I26">
+        <v>3.9592999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
         <v>172143</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C27">
         <v>169924</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D27">
         <v>44422</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E27">
         <v>42012</v>
       </c>
-      <c r="F8">
+      <c r="F27">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1">
+      <c r="G27">
+        <v>19.510000000000002</v>
+      </c>
+      <c r="H27">
+        <v>53.72</v>
+      </c>
+      <c r="I27">
+        <v>3.2532000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
         <v>194222</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C28">
         <v>174413</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D28">
         <v>42012</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E28">
         <v>51574</v>
       </c>
-      <c r="F9">
+      <c r="F28">
         <v>15.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="G28">
+        <v>15.16</v>
+      </c>
+      <c r="H28">
+        <v>60.42</v>
+      </c>
+      <c r="I28">
+        <v>3.3121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
         <v>179158</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C29">
         <v>172794</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D29">
         <v>51574</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E29">
         <v>52827</v>
       </c>
-      <c r="F10">
+      <c r="F29">
         <v>16.100000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G29">
+        <v>12.03</v>
+      </c>
+      <c r="H29">
+        <v>45.41</v>
+      </c>
+      <c r="I29">
+        <v>3.8803999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>166559</v>
+      </c>
+      <c r="C30">
+        <v>172180</v>
+      </c>
+      <c r="D30">
+        <v>52827</v>
+      </c>
+      <c r="E30">
+        <v>47800</v>
+      </c>
+      <c r="F30">
+        <v>14.5</v>
+      </c>
+      <c r="G30">
+        <v>13.42</v>
+      </c>
+      <c r="H30">
+        <v>61.06</v>
+      </c>
+      <c r="I30">
+        <v>4.0190000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>180262</v>
+      </c>
+      <c r="C31">
+        <v>171939</v>
+      </c>
+      <c r="D31">
+        <v>47800</v>
+      </c>
+      <c r="E31">
+        <v>50297</v>
+      </c>
+      <c r="F31">
         <v>13</v>
       </c>
-      <c r="B11" s="1">
-        <v>166559</v>
-      </c>
-      <c r="C11" s="1">
-        <v>172180</v>
-      </c>
-      <c r="D11" s="1">
-        <v>52827</v>
-      </c>
-      <c r="E11" s="1">
-        <v>47800</v>
-      </c>
-      <c r="F11">
-        <v>14.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="1">
-        <v>180262</v>
-      </c>
-      <c r="C12" s="1">
-        <v>171939</v>
-      </c>
-      <c r="D12" s="1">
-        <v>47800</v>
-      </c>
-      <c r="E12" s="1">
+      <c r="G31">
+        <v>15.49</v>
+      </c>
+      <c r="H31">
+        <v>48.52</v>
+      </c>
+      <c r="I31">
+        <v>5.1936999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>180676</v>
+      </c>
+      <c r="C32">
+        <v>174898</v>
+      </c>
+      <c r="D32">
         <v>50297</v>
       </c>
-      <c r="F12">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="1">
-        <v>180676</v>
-      </c>
-      <c r="C13" s="1">
-        <v>174898</v>
-      </c>
-      <c r="D13" s="1">
-        <v>50297</v>
-      </c>
-      <c r="E13" s="1">
+      <c r="E32">
         <v>47728</v>
       </c>
-      <c r="F13">
+      <c r="F32">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="1">
+      <c r="G32">
+        <v>18.88</v>
+      </c>
+      <c r="H32">
+        <v>75.209999999999994</v>
+      </c>
+      <c r="I32">
+        <v>5.5702999999999996</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
         <v>179145</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C33">
         <v>177119</v>
       </c>
-      <c r="D14" s="1">
+      <c r="D33">
         <v>47728</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E33">
         <v>46229</v>
       </c>
-      <c r="F14">
+      <c r="F33">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1">
+      <c r="G33">
+        <v>20.04</v>
+      </c>
+      <c r="H33">
+        <v>80.47</v>
+      </c>
+      <c r="I33">
+        <v>5.2859999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
         <v>183827</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C34">
         <v>178243</v>
       </c>
-      <c r="D15" s="1">
+      <c r="D34">
         <v>46229</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E34">
         <v>48372</v>
       </c>
-      <c r="F15">
+      <c r="F34">
         <v>14.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1">
+      <c r="G34">
+        <v>20.58</v>
+      </c>
+      <c r="H34">
+        <v>71.650000000000006</v>
+      </c>
+      <c r="I34">
+        <v>4.8521000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
         <v>186619</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C35">
         <v>180312</v>
       </c>
-      <c r="D16" s="1">
+      <c r="D35">
         <v>48372</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E35">
         <v>45427</v>
       </c>
-      <c r="F16">
+      <c r="F35">
         <v>16.3</v>
       </c>
+      <c r="G35">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="H35">
+        <v>69.59</v>
+      </c>
+      <c r="I35">
+        <v>6.1425000000000001</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>